--- a/xls_data/2017-4.xlsx
+++ b/xls_data/2017-4.xlsx
@@ -8,17 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="VRKT" sheetId="1" r:id="rId1"/>
-    <sheet name="TSRT" sheetId="2" r:id="rId2"/>
-    <sheet name="KZBG" sheetId="3" r:id="rId3"/>
-    <sheet name="AGMS" sheetId="4" r:id="rId4"/>
-    <sheet name="TBL01" sheetId="5" r:id="rId5"/>
+    <sheet name="KZBG" sheetId="2" r:id="rId2"/>
+    <sheet name="AGMS" sheetId="3" r:id="rId3"/>
+    <sheet name="TBL01" sheetId="4" r:id="rId4"/>
+    <sheet name="TSRT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="290">
   <si>
     <t>ნივთიერება</t>
   </si>
@@ -389,6 +389,231 @@
     <t>1.39</t>
   </si>
   <si>
+    <t>3.62</t>
+  </si>
+  <si>
+    <t>26.21</t>
+  </si>
+  <si>
+    <t>50.74</t>
+  </si>
+  <si>
+    <t>52.75</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>32.17</t>
+  </si>
+  <si>
+    <t>58.70</t>
+  </si>
+  <si>
+    <t>39.25</t>
+  </si>
+  <si>
+    <t>12.29</t>
+  </si>
+  <si>
+    <t>61.12</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>11.26</t>
+  </si>
+  <si>
+    <t>26.47</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>11.71</t>
+  </si>
+  <si>
+    <t>16.58</t>
+  </si>
+  <si>
+    <t>31.85</t>
+  </si>
+  <si>
+    <t>48.62</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>11.62</t>
+  </si>
+  <si>
+    <t>13.35</t>
+  </si>
+  <si>
+    <t>25.31</t>
+  </si>
+  <si>
+    <t>75.50</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>12.04</t>
+  </si>
+  <si>
+    <t>35.60</t>
+  </si>
+  <si>
+    <t>73.25</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>45.71</t>
+  </si>
+  <si>
+    <t>16.71</t>
+  </si>
+  <si>
+    <t>55.23</t>
+  </si>
+  <si>
+    <t>87.62</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>11.12</t>
+  </si>
+  <si>
+    <t>12.07</t>
+  </si>
+  <si>
+    <t>24.19</t>
+  </si>
+  <si>
+    <t>70.12</t>
+  </si>
+  <si>
+    <t>10.96</t>
+  </si>
+  <si>
+    <t>12.08</t>
+  </si>
+  <si>
+    <t>25.29</t>
+  </si>
+  <si>
+    <t>73.62</t>
+  </si>
+  <si>
+    <t>10.21</t>
+  </si>
+  <si>
+    <t>13.47</t>
+  </si>
+  <si>
+    <t>26.70</t>
+  </si>
+  <si>
+    <t>78.75</t>
+  </si>
+  <si>
+    <t>9.38</t>
+  </si>
+  <si>
+    <t>18.12</t>
+  </si>
+  <si>
+    <t>33.94</t>
+  </si>
+  <si>
+    <t>66.50</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>9.96</t>
+  </si>
+  <si>
+    <t>24.18</t>
+  </si>
+  <si>
+    <t>39.79</t>
+  </si>
+  <si>
+    <t>77.12</t>
+  </si>
+  <si>
+    <t>22.12</t>
+  </si>
+  <si>
+    <t>41.26</t>
+  </si>
+  <si>
+    <t>67.75</t>
+  </si>
+  <si>
+    <t>44.79</t>
+  </si>
+  <si>
+    <t>16.12</t>
+  </si>
+  <si>
+    <t>36.07</t>
+  </si>
+  <si>
+    <t>91.38</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>14.29</t>
+  </si>
+  <si>
+    <t>29.12</t>
+  </si>
+  <si>
+    <t>79.25</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>15.35</t>
+  </si>
+  <si>
+    <t>31.36</t>
+  </si>
+  <si>
+    <t>77.88</t>
+  </si>
+  <si>
+    <t>9.21</t>
+  </si>
+  <si>
+    <t>18.11</t>
+  </si>
+  <si>
+    <t>36.68</t>
+  </si>
+  <si>
+    <t>57.75</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
     <t>76.75</t>
   </si>
   <si>
@@ -473,9 +698,6 @@
     <t>42.88</t>
   </si>
   <si>
-    <t>61.12</t>
-  </si>
-  <si>
     <t>1.16</t>
   </si>
   <si>
@@ -551,9 +773,6 @@
     <t>77.06</t>
   </si>
   <si>
-    <t>70.12</t>
-  </si>
-  <si>
     <t>1.46</t>
   </si>
   <si>
@@ -602,9 +821,6 @@
     <t>37.06</t>
   </si>
   <si>
-    <t>66.50</t>
-  </si>
-  <si>
     <t>1.07</t>
   </si>
   <si>
@@ -623,9 +839,6 @@
     <t>39.54</t>
   </si>
   <si>
-    <t>11.12</t>
-  </si>
-  <si>
     <t>20.80</t>
   </si>
   <si>
@@ -714,246 +927,6 @@
   </si>
   <si>
     <t>40.00</t>
-  </si>
-  <si>
-    <t>56.58</t>
-  </si>
-  <si>
-    <t>3.62</t>
-  </si>
-  <si>
-    <t>26.21</t>
-  </si>
-  <si>
-    <t>50.74</t>
-  </si>
-  <si>
-    <t>52.75</t>
-  </si>
-  <si>
-    <t>58.50</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>32.17</t>
-  </si>
-  <si>
-    <t>58.70</t>
-  </si>
-  <si>
-    <t>39.25</t>
-  </si>
-  <si>
-    <t>33.25</t>
-  </si>
-  <si>
-    <t>12.29</t>
-  </si>
-  <si>
-    <t>33.42</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>11.26</t>
-  </si>
-  <si>
-    <t>26.47</t>
-  </si>
-  <si>
-    <t>46.79</t>
-  </si>
-  <si>
-    <t>11.71</t>
-  </si>
-  <si>
-    <t>16.58</t>
-  </si>
-  <si>
-    <t>31.85</t>
-  </si>
-  <si>
-    <t>48.62</t>
-  </si>
-  <si>
-    <t>29.50</t>
-  </si>
-  <si>
-    <t>11.62</t>
-  </si>
-  <si>
-    <t>13.35</t>
-  </si>
-  <si>
-    <t>25.31</t>
-  </si>
-  <si>
-    <t>75.50</t>
-  </si>
-  <si>
-    <t>40.92</t>
-  </si>
-  <si>
-    <t>12.04</t>
-  </si>
-  <si>
-    <t>35.60</t>
-  </si>
-  <si>
-    <t>73.25</t>
-  </si>
-  <si>
-    <t>25.88</t>
-  </si>
-  <si>
-    <t>45.71</t>
-  </si>
-  <si>
-    <t>16.71</t>
-  </si>
-  <si>
-    <t>55.23</t>
-  </si>
-  <si>
-    <t>87.62</t>
-  </si>
-  <si>
-    <t>29.96</t>
-  </si>
-  <si>
-    <t>12.07</t>
-  </si>
-  <si>
-    <t>24.19</t>
-  </si>
-  <si>
-    <t>32.04</t>
-  </si>
-  <si>
-    <t>10.96</t>
-  </si>
-  <si>
-    <t>12.08</t>
-  </si>
-  <si>
-    <t>25.29</t>
-  </si>
-  <si>
-    <t>73.62</t>
-  </si>
-  <si>
-    <t>30.96</t>
-  </si>
-  <si>
-    <t>10.21</t>
-  </si>
-  <si>
-    <t>13.47</t>
-  </si>
-  <si>
-    <t>26.70</t>
-  </si>
-  <si>
-    <t>78.75</t>
-  </si>
-  <si>
-    <t>38.08</t>
-  </si>
-  <si>
-    <t>9.38</t>
-  </si>
-  <si>
-    <t>18.12</t>
-  </si>
-  <si>
-    <t>33.94</t>
-  </si>
-  <si>
-    <t>43.21</t>
-  </si>
-  <si>
-    <t>9.96</t>
-  </si>
-  <si>
-    <t>24.18</t>
-  </si>
-  <si>
-    <t>39.79</t>
-  </si>
-  <si>
-    <t>77.12</t>
-  </si>
-  <si>
-    <t>43.54</t>
-  </si>
-  <si>
-    <t>22.12</t>
-  </si>
-  <si>
-    <t>41.26</t>
-  </si>
-  <si>
-    <t>67.75</t>
-  </si>
-  <si>
-    <t>28.88</t>
-  </si>
-  <si>
-    <t>44.79</t>
-  </si>
-  <si>
-    <t>16.12</t>
-  </si>
-  <si>
-    <t>36.07</t>
-  </si>
-  <si>
-    <t>91.38</t>
-  </si>
-  <si>
-    <t>29.83</t>
-  </si>
-  <si>
-    <t>14.29</t>
-  </si>
-  <si>
-    <t>29.12</t>
-  </si>
-  <si>
-    <t>79.25</t>
-  </si>
-  <si>
-    <t>37.08</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
-    <t>15.35</t>
-  </si>
-  <si>
-    <t>31.36</t>
-  </si>
-  <si>
-    <t>77.88</t>
-  </si>
-  <si>
-    <t>45.46</t>
-  </si>
-  <si>
-    <t>9.21</t>
-  </si>
-  <si>
-    <t>18.11</t>
-  </si>
-  <si>
-    <t>36.68</t>
-  </si>
-  <si>
-    <t>57.75</t>
   </si>
 </sst>
 </file>
@@ -1741,528 +1714,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="8" width="14.7109375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>27</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2300,19 +1751,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>221</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>222</v>
+        <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>223</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
@@ -2323,19 +1774,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>21</v>
@@ -2346,10 +1797,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
@@ -2358,10 +1809,10 @@
         <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2369,22 +1820,22 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2392,22 +1843,22 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2415,22 +1866,22 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2438,22 +1889,22 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2461,22 +1912,22 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2484,22 +1935,22 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2507,22 +1958,22 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>259</v>
+        <v>149</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2530,22 +1981,22 @@
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2553,22 +2004,22 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>267</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>269</v>
+        <v>157</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>270</v>
+        <v>158</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2576,22 +2027,22 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2599,22 +2050,22 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>276</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>277</v>
+        <v>165</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>278</v>
+        <v>166</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>279</v>
+        <v>167</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2622,22 +2073,22 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>281</v>
+        <v>168</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>283</v>
+        <v>170</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2645,22 +2096,22 @@
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>285</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>287</v>
+        <v>174</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2668,22 +2119,22 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>289</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>290</v>
+        <v>176</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>291</v>
+        <v>177</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>292</v>
+        <v>178</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>293</v>
+        <v>179</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2691,22 +2142,61 @@
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>294</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>21</v>
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="14.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +2245,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2787,6 +2277,489 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
